--- a/data/curriculum_mapping.xlsx
+++ b/data/curriculum_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박준철\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BFBBDC-C0C0-4672-BAAE-7E177E36D9E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B9C1B4-7135-4612-B554-BF9E48986ED6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,42 +68,6 @@
     <t>탄소중립바이오시스템융합전공</t>
   </si>
   <si>
-    <t>10. 사물인터넷 MD(소프트웨어융합전공)</t>
-  </si>
-  <si>
-    <t>11. 통신공학 MD(전자공학전공)</t>
-  </si>
-  <si>
-    <t>12. 탄소중립 전기에너지 MD(전기공학전공)</t>
-  </si>
-  <si>
-    <t>13. 브랜드 콘텐츠 MD(시각미디어디자인전공)</t>
-  </si>
-  <si>
-    <t>14. AI보안 MD(정보보안전공)</t>
-  </si>
-  <si>
-    <t>26. (화학)반도체 소재 MD(화학공학전공)</t>
-  </si>
-  <si>
-    <t>27. (ICT)반도체 부품장비 MD(ICT로봇공학전공)</t>
-  </si>
-  <si>
-    <t>28. (기계)반도체 부품장비 MD(기계공학전공)</t>
-  </si>
-  <si>
-    <t>29. (전자)반도체 공정 MD(전자공학전공)</t>
-  </si>
-  <si>
-    <t>30. (전기)반도체 부품장비 MD(전기공학전공)</t>
-  </si>
-  <si>
-    <t>33. 컴퓨터음악 MD(실용음악학전공)</t>
-  </si>
-  <si>
-    <t>37. 유아 교과 수업설계 MD(유아특수보육학전공)</t>
-  </si>
-  <si>
     <t>1. 식품품질관리 마이크로디그리.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,106 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15. 공공 PR MD(문예창작미디어콘텐츠홍보전공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16. 내러티브 디자인 MD(문예창작미디어콘텐츠홍보전공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17. 한영 언어 융합 MD(문예창작미디어콘텐츠홍보전공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18. 정부 및 공기업 재무회계 전문가 MD(행정학전공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19. 그로스마케터 과정 MD(경영학전공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20. 재무빅데이터분석 전문가 MD(경영학전공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21. 푸드콘텐츠기획자 MD(식품영양학전공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22. 식물원학 MD(식물생명환경전공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23. 바이오매스 MD(동물생명과학전공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24. 지역관광자원 활성화 MD(지역자원시스템공학전공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25. AI 화학공학 MD(화학공학전공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31. (AI융합)반도체 소자 MD(AI융합학부 반도체융합전공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32. (AI융합)반도체 설계 MD(AI융합학부 반도체융합전공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34. 인공지능과 사회복지 MD(AI반도체융합전공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35. 3D 프린팅 디자이너 MD(제품공간디자인전공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36. 유니버설디자인 이노베이터 MD(제품공간디자인전공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01. 식품품질관리 MD(식품영양학전공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02. 유전체 육종번식 MD(동물생명과학전공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03. 반려동물 MD(동물응용과학전공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04. 축산식품과 HACCP MD(동물응용과학전공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05. 생명공학연구실습 MD(응용생명공학전공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06. 인프라 재난방재 MD(토목공학전공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>07. 바이오에너지 MD(환경공학전공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08. 산업보건 및 위생 MD(안전공학전공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09. 바이오에너지화공환경 MD(화학공학전공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>32-1. (AI융합)반도체 설계 마이크로디그리.png, 32-2. (AI융합)반도체 설계 마이크로디그리.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -382,6 +246,117 @@
   <si>
     <t>15-1. 공공 RP 마이크로디그리.png, 15-2. 공공 RP 마이크로디그리.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식품품질관리 MD</t>
+  </si>
+  <si>
+    <t>유전체 육종번식 MD</t>
+  </si>
+  <si>
+    <t>반려동물 MD</t>
+  </si>
+  <si>
+    <t>축산식품과 HACCP MD</t>
+  </si>
+  <si>
+    <t>생명공학연구실습 MD</t>
+  </si>
+  <si>
+    <t>인프라 재난방재 MD</t>
+  </si>
+  <si>
+    <t>바이오에너지 MD</t>
+  </si>
+  <si>
+    <t>산업보건 및 위생 MD</t>
+  </si>
+  <si>
+    <t>바이오에너지화공환경 MD</t>
+  </si>
+  <si>
+    <t>사물인터넷 MD</t>
+  </si>
+  <si>
+    <t>통신공학 MD</t>
+  </si>
+  <si>
+    <t>탄소중립 전기에너지 MD</t>
+  </si>
+  <si>
+    <t>브랜드 콘텐츠 MD</t>
+  </si>
+  <si>
+    <t>AI보안 MD</t>
+  </si>
+  <si>
+    <t>공공 PR MD</t>
+  </si>
+  <si>
+    <t>내러티브 디자인 MD</t>
+  </si>
+  <si>
+    <t>한영 언어 융합 MD</t>
+  </si>
+  <si>
+    <t>정부 및 공기업 재무회계 전문가 MD</t>
+  </si>
+  <si>
+    <t>그로스마케터 과정 MD</t>
+  </si>
+  <si>
+    <t>재무빅데이터분석 전문가 MD</t>
+  </si>
+  <si>
+    <t>푸드콘텐츠기획자 MD</t>
+  </si>
+  <si>
+    <t>식물원학 MD</t>
+  </si>
+  <si>
+    <t>바이오매스 MD</t>
+  </si>
+  <si>
+    <t>지역관광자원 활성화 MD</t>
+  </si>
+  <si>
+    <t>AI 화학공학 MD</t>
+  </si>
+  <si>
+    <t>(화학)반도체 소재 MD</t>
+  </si>
+  <si>
+    <t>(ICT)반도체 부품장비 MD</t>
+  </si>
+  <si>
+    <t>(기계)반도체 부품장비 MD</t>
+  </si>
+  <si>
+    <t>(전자)반도체 공정 MD</t>
+  </si>
+  <si>
+    <t>(전기)반도체 부품장비 MD</t>
+  </si>
+  <si>
+    <t>(AI융합)반도체 소자 MD</t>
+  </si>
+  <si>
+    <t>(AI융합)반도체 설계 MD</t>
+  </si>
+  <si>
+    <t>컴퓨터음악 MD</t>
+  </si>
+  <si>
+    <t>인공지능과 사회복지 MD</t>
+  </si>
+  <si>
+    <t>3D 프린팅 디자이너 MD</t>
+  </si>
+  <si>
+    <t>유니버설디자인 이노베이터 MD</t>
+  </si>
+  <si>
+    <t>유아 교과 수업설계 MD</t>
   </si>
 </sst>
 </file>
@@ -733,20 +708,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.75" customWidth="1"/>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,7 +732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -765,10 +740,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -776,10 +751,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -787,10 +762,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -798,10 +773,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -809,10 +784,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -820,10 +795,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -831,415 +806,452 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="D45" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/curriculum_mapping.xlsx
+++ b/data/curriculum_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박준철\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B9C1B4-7135-4612-B554-BF9E48986ED6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E423A3C5-1A2F-497A-87B4-B073D65FB533}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -710,9 +710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/data/curriculum_mapping.xlsx
+++ b/data/curriculum_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박준철\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E423A3C5-1A2F-497A-87B4-B073D65FB533}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCC2413-105E-440E-AFDF-2D33DFFA970A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -708,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -719,7 +719,7 @@
     <col min="3" max="3" width="110.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,7 +730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -741,7 +741,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -752,7 +752,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -763,7 +763,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -774,7 +774,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -785,7 +785,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -796,7 +796,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -807,7 +807,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>56</v>
       </c>
@@ -817,9 +817,8 @@
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>57</v>
       </c>
@@ -829,9 +828,8 @@
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>58</v>
       </c>
@@ -841,9 +839,8 @@
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>59</v>
       </c>
@@ -853,9 +850,8 @@
       <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>60</v>
       </c>
@@ -865,9 +861,8 @@
       <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>61</v>
       </c>
@@ -877,9 +872,8 @@
       <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>62</v>
       </c>
@@ -889,9 +883,8 @@
       <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>63</v>
       </c>
@@ -901,9 +894,8 @@
       <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>64</v>
       </c>
@@ -913,9 +905,8 @@
       <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>65</v>
       </c>
@@ -925,9 +916,8 @@
       <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>66</v>
       </c>
@@ -937,9 +927,8 @@
       <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>67</v>
       </c>
@@ -949,9 +938,8 @@
       <c r="C20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>68</v>
       </c>
@@ -961,9 +949,8 @@
       <c r="C21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>69</v>
       </c>
@@ -973,9 +960,8 @@
       <c r="C22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>70</v>
       </c>
@@ -985,9 +971,8 @@
       <c r="C23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>71</v>
       </c>
@@ -997,9 +982,8 @@
       <c r="C24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>72</v>
       </c>
@@ -1009,9 +993,8 @@
       <c r="C25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>73</v>
       </c>
@@ -1021,9 +1004,8 @@
       <c r="C26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>74</v>
       </c>
@@ -1033,9 +1015,8 @@
       <c r="C27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>75</v>
       </c>
@@ -1045,9 +1026,8 @@
       <c r="C28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>76</v>
       </c>
@@ -1057,9 +1037,8 @@
       <c r="C29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>77</v>
       </c>
@@ -1069,9 +1048,8 @@
       <c r="C30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>78</v>
       </c>
@@ -1081,9 +1059,8 @@
       <c r="C31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>79</v>
       </c>
@@ -1093,9 +1070,8 @@
       <c r="C32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>80</v>
       </c>
@@ -1105,9 +1081,8 @@
       <c r="C33" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>81</v>
       </c>
@@ -1117,9 +1092,8 @@
       <c r="C34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>82</v>
       </c>
@@ -1129,9 +1103,8 @@
       <c r="C35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>83</v>
       </c>
@@ -1141,9 +1114,8 @@
       <c r="C36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>84</v>
       </c>
@@ -1153,9 +1125,8 @@
       <c r="C37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>85</v>
       </c>
@@ -1165,9 +1136,8 @@
       <c r="C38" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>86</v>
       </c>
@@ -1177,9 +1147,8 @@
       <c r="C39" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>87</v>
       </c>
@@ -1189,9 +1158,8 @@
       <c r="C40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>88</v>
       </c>
@@ -1201,9 +1169,8 @@
       <c r="C41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>89</v>
       </c>
@@ -1213,9 +1180,8 @@
       <c r="C42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>90</v>
       </c>
@@ -1225,9 +1191,8 @@
       <c r="C43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>91</v>
       </c>
@@ -1237,9 +1202,8 @@
       <c r="C44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>92</v>
       </c>
@@ -1249,7 +1213,6 @@
       <c r="C45" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/curriculum_mapping.xlsx
+++ b/data/curriculum_mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박준철\chatbot_project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박준철\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCC2413-105E-440E-AFDF-2D33DFFA970A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B0172B-0DA6-460B-B291-CD5926183FB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="129">
   <si>
     <t>전공명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,6 +357,132 @@
   </si>
   <si>
     <t>유아 교과 수업설계 MD</t>
+  </si>
+  <si>
+    <t>글로벌 비즈니스 MD</t>
+  </si>
+  <si>
+    <t>AIoT보안(이론) MD</t>
+  </si>
+  <si>
+    <t>AIoT보안(실습) MD</t>
+  </si>
+  <si>
+    <t>농산물품질관리 MD</t>
+  </si>
+  <si>
+    <t>정책분석평가 MD</t>
+  </si>
+  <si>
+    <t>의료수어통역 MD</t>
+  </si>
+  <si>
+    <t>의료기기 RA MD</t>
+  </si>
+  <si>
+    <t>청소년상담가과정 MD</t>
+  </si>
+  <si>
+    <t>통합돌봄사례관리과정 MD</t>
+  </si>
+  <si>
+    <t>미래모빌리티 계측/제어/설계 MD</t>
+  </si>
+  <si>
+    <t>(AI반도체) 반도체 설계 MD</t>
+  </si>
+  <si>
+    <t>반도체 부품 설계 MD</t>
+  </si>
+  <si>
+    <t>반도체 소부장 MD</t>
+  </si>
+  <si>
+    <t>인간이해와상담 MD</t>
+  </si>
+  <si>
+    <t>동물바이오메디컬 MD</t>
+  </si>
+  <si>
+    <t>귀금속보석공예 MD</t>
+  </si>
+  <si>
+    <t>최신반도체공정 MD</t>
+  </si>
+  <si>
+    <t>첨단소재공학 MD</t>
+  </si>
+  <si>
+    <t>38. 글로벌 비즈니스 마이크로디그리.PNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39. AIoT보안(이론) 마이크로디그리.PNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40. AIoT보안(실습) 마이크로디그리.PNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41. 농산물품질관리 마이크로디그리.PNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42. 정책분석평가 마이크로디그리.PNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43. 의료수어통역 마이크로디그리.PNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44. 의료기기 RA 마이크로디그리.PNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45. 청소년상담가과정 마이크로디그리.PNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46. 통합돌봄사례관리과정 마이크로디그리.PNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47. 미래모빌리티 계측제어설계 마이크로디그리.PNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48. 반도체 설계 마이크로디그리.PNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49. 반도체 부품 설계 마이크로디그리.PNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50. 반도체 소부장 마이크로디그리.PNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51.인간이해와상담 마이크로디그리.PNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52. 동물바이오메디컬 마이크로디그리.PNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53 귀금속보석공예 마이크로디그리.PNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54. 최신반도체공정 마이크로디그리.PNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55. 첨단소재공학 마이크로디그리.PNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -422,12 +548,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -708,7 +835,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1214,6 +1341,204 @@
         <v>31</v>
       </c>
     </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
